--- a/biology/Zoologie/Cambarellus/Cambarellus.xlsx
+++ b/biology/Zoologie/Cambarellus/Cambarellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cambarellus est un genre de petites écrevisses d'eau douce de la famille des Cambaridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition dans le monde</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les 18 espèces se trouvent au Mexique (sous-genre Cambarellus) et au bord de la Côte du Golfe des États-Unis (sous-genres Dirigicambarus et Pandicambarus).
 </t>
@@ -542,7 +556,9 @@
           <t>Statuts</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les espèces mexicaines, C. areolatus , C. patzcuarensis et C. prolixus sont considérées comme gravement menacées par l'UICN et C. alvarezi est déjà éteinte. C. chihuahuae aurait également disparu jusqu'à sa redécouverte en 2012. Une forme orange de C. patzcuarensis est régulièrement observée dans le commerce des aquariums d'eau douce.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des sous-genres et d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (2 janv. 2019)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (2 janv. 2019) :
 Cambarellus (Cambarellus) Ortmann, 1905
 Cambarellus (Dirigicambarus) Fitzpatrick, 1983
 Cambarellus (Pandicambarus) Fitzpatrick, 1983
@@ -615,9 +633,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon EOL                          (2 janv. 2019)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon EOL                          (2 janv. 2019) :
 Cambarellus zempoalensis Villalobos 1943
 Cambarellus prolixus Villalobos &amp; Hobbs 1981
 Cambarellus alvarezi Villalobos 1952
